--- a/testdata/mc_lpn.xlsx
+++ b/testdata/mc_lpn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13125"/>
+    <workbookView windowWidth="28125" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -30,7 +30,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:post方法的body，传参形式：</t>
+          <t>Administrator:</t>
         </r>
         <r>
           <rPr>
@@ -39,8 +39,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-json（默认），或者data
-</t>
+Get方法的参数</t>
         </r>
       </text>
     </comment>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -69,10 +68,7 @@
     <t>headers</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>post_data</t>
   </si>
   <si>
     <t>expect_code</t>
@@ -87,7 +83,7 @@
     <t>api_01</t>
   </si>
   <si>
-    <t>[正常功能]车牌校验接口</t>
+    <t>[正常功能]车牌校验接口01</t>
   </si>
   <si>
     <t>get</t>
@@ -118,16 +114,40 @@
     <t>api_02</t>
   </si>
   <si>
-    <t>[异常功能]车牌校验接口</t>
+    <t>[正常功能]车牌校验接口02</t>
   </si>
   <si>
     <t>{
     '_': '1603159006345',
-    'lpn': '川A0'
+    'lpn': '川A07Y384'
 }</t>
   </si>
   <si>
+    <t>api_03</t>
+  </si>
+  <si>
+    <t>[异常功能]车牌校验接口01</t>
+  </si>
+  <si>
+    <t>{
+    '_': '1603159006345',
+    'lpn': '川A0891'
+}</t>
+  </si>
+  <si>
     <t>格式不正确</t>
+  </si>
+  <si>
+    <t>api_04</t>
+  </si>
+  <si>
+    <t>[异常功能]车牌校验接口</t>
+  </si>
+  <si>
+    <t>{
+    '_': '1603159006345',
+    'lpn': '川A07898999'
+}</t>
   </si>
 </sst>
 </file>
@@ -135,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -158,19 +178,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -186,46 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,21 +230,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -262,24 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +298,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -313,13 +333,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,168 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,61 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +560,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -591,16 +591,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,16 +644,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,112 +665,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,25 +1132,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="43.125" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,76 +1181,126 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" ht="256.5" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="256.5" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" ht="256.5" spans="1:10">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3">
+        <v>2000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="I2">
-        <v>2000</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" ht="256.5" spans="1:11">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" ht="256.5" spans="1:10">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="I3">
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4">
         <v>5000</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="4:7">
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="5" ht="256.5" spans="1:10">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId3" display="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck" tooltip="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck" tooltip="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck" tooltip="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck"/>
     <hyperlink ref="D3" r:id="rId3" display="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck" tooltip="https://ts.keytop.cn/mc/service/front/v2/openVip/bindLpnCheck"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/mc_lpn.xlsx
+++ b/testdata/mc_lpn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13125"/>
+    <workbookView windowWidth="28800" windowHeight="13510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>api_01</t>
   </si>
   <si>
-    <t>[正常功能]车牌校验接口01</t>
+    <t>[车牌校验]香港车牌</t>
   </si>
   <si>
     <t>get</t>
@@ -114,7 +114,7 @@
     <t>api_02</t>
   </si>
   <si>
-    <t>[正常功能]车牌校验接口02</t>
+    <t>[车牌校验]新能源车牌</t>
   </si>
   <si>
     <t>{
@@ -126,7 +126,7 @@
     <t>api_03</t>
   </si>
   <si>
-    <t>[异常功能]车牌校验接口01</t>
+    <t>[车牌校验]4位车牌</t>
   </si>
   <si>
     <t>{
@@ -141,7 +141,7 @@
     <t>api_04</t>
   </si>
   <si>
-    <t>[异常功能]车牌校验接口</t>
+    <t>[车牌校验]9位车牌</t>
   </si>
   <si>
     <t>{
@@ -178,9 +178,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,127 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,187 +333,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,16 +528,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,31 +561,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +583,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -615,15 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,16 +644,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,115 +662,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,20 +1134,20 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3727272727273" customWidth="1"/>
+    <col min="4" max="4" width="37.1272727272727" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="43.125" customWidth="1"/>
+    <col min="6" max="6" width="43.1272727272727" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="14.7545454545455" customWidth="1"/>
+    <col min="9" max="9" width="13.7545454545455" customWidth="1"/>
+    <col min="10" max="10" width="13.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="256.5" spans="1:10">
+    <row r="2" ht="266" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="256.5" spans="1:10">
+    <row r="3" ht="266" spans="1:10">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="256.5" spans="1:10">
+    <row r="4" ht="266" spans="1:10">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="256.5" spans="1:10">
+    <row r="5" ht="266" spans="1:10">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1319,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1336,7 +1336,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testdata/mc_lpn.xlsx
+++ b/testdata/mc_lpn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13510"/>
+    <workbookView windowWidth="23040" windowHeight="10270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,9 @@
     <t>params</t>
   </si>
   <si>
+    <t>cookies</t>
+  </si>
+  <si>
     <t>headers</t>
   </si>
   <si>
@@ -83,7 +86,7 @@
     <t>api_01</t>
   </si>
   <si>
-    <t>[车牌校验]香港车牌</t>
+    <t>[正常功能]车牌校验接口01</t>
   </si>
   <si>
     <t>get</t>
@@ -98,23 +101,13 @@
 }</t>
   </si>
   <si>
-    <t>{
-    'Host': 'ts.keytop.cn',
-    'accept': 'application/json, text/plain, */*',
-    'accept-language': 'zh-cn',
-    'referer': 'https://ts.keytop.cn/stcfront_vip/Member/Standard?origin=05&amp;choosePackage=0',
-    'user-agent': 'Mozilla/5.0 (iPhone; CPU iPhone OS 13_3_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Mobile/15E148 MicroMessenger/7.0.14(0x17000e2e) NetType/WIFI Language/zh_CN',
-    'accesstoken': 'Raz2FyxSllzSkEPbLrvVgLkCMlmSIkVUJnWFOjWMq5DlYsEnj0Jb7z7AGjrVTDprgxCAPM-DlxUWW13KY3rbiA==',
-}</t>
-  </si>
-  <si>
     <t>成功</t>
   </si>
   <si>
     <t>api_02</t>
   </si>
   <si>
-    <t>[车牌校验]新能源车牌</t>
+    <t>[正常功能]车牌校验接口02</t>
   </si>
   <si>
     <t>{
@@ -126,7 +119,7 @@
     <t>api_03</t>
   </si>
   <si>
-    <t>[车牌校验]4位车牌</t>
+    <t>[异常功能]车牌校验接口01</t>
   </si>
   <si>
     <t>{
@@ -141,7 +134,7 @@
     <t>api_04</t>
   </si>
   <si>
-    <t>[车牌校验]9位车牌</t>
+    <t>[异常功能]车牌校验接口</t>
   </si>
   <si>
     <t>{
@@ -155,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,7 +178,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,80 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,19 +276,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +291,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,17 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,7 +548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,20 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +600,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -632,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,16 +637,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,115 +655,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,25 +1125,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="24.3727272727273" customWidth="1"/>
     <col min="4" max="4" width="37.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="43.1272727272727" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="14.7545454545455" customWidth="1"/>
-    <col min="9" max="9" width="13.7545454545455" customWidth="1"/>
-    <col min="10" max="10" width="13.3727272727273" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="43.1272727272727" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="14.7545454545455" customWidth="1"/>
+    <col min="10" max="10" width="13.7545454545455" customWidth="1"/>
+    <col min="11" max="11" width="13.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,38 +1174,40 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="266" spans="1:10">
+    <row r="2" ht="84" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2">
+      <c r="H2" s="1"/>
+      <c r="I2">
         <v>2000</v>
       </c>
-      <c r="I2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="266" spans="1:10">
+    <row r="3" ht="84" spans="1:11">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1220,29 +1215,28 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3">
+      <c r="H3" s="1"/>
+      <c r="I3">
         <v>2000</v>
       </c>
-      <c r="I3" t="b">
+      <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="266" spans="1:10">
+    <row r="4" ht="84" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1250,26 +1244,25 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4">
+      <c r="H4" s="1"/>
+      <c r="I4">
         <v>5000</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="266" spans="1:10">
+    <row r="5" ht="84" spans="1:11">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1277,22 +1270,21 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5">
+      <c r="H5" s="1"/>
+      <c r="I5">
         <v>5000</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
     </row>
